--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_16-14.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_16-14.xlsx
@@ -80,6 +80,9 @@
     <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
   </si>
   <si>
+    <t>CLEXANE 40MG/0.4ML 2 PREFILLED SYRINGE</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
   </si>
   <si>
     <t>3:0</t>
+  </si>
+  <si>
+    <t>EPIAO 4000I.U./ML VIAL</t>
   </si>
   <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
@@ -1072,17 +1078,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1090,7 +1096,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1098,17 +1104,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>47.5</v>
+        <v>66</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1124,13 +1130,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>12</v>
+        <v>47.5</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1142,7 +1148,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1150,17 +1156,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1168,7 +1174,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1176,13 +1182,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1194,7 +1200,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1202,13 +1208,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1220,7 +1226,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1228,17 +1234,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1246,7 +1252,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1254,13 +1260,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1280,13 +1286,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1298,7 +1304,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1306,17 +1312,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1324,7 +1330,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1332,17 +1338,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>55.670000000000002</v>
+        <v>26</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1358,17 +1364,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1390,11 +1396,11 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>92</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1410,13 +1416,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1436,13 +1442,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1462,13 +1468,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1488,13 +1494,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1514,13 +1520,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1540,17 +1546,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1558,7 +1564,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1566,17 +1572,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1584,7 +1590,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1592,17 +1598,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>440</v>
+        <v>36</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1610,7 +1616,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1618,17 +1624,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1636,7 +1642,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1644,17 +1650,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>48</v>
+        <v>440</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1662,7 +1668,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1670,17 +1676,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1688,7 +1694,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1696,17 +1702,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1722,13 +1728,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1748,13 +1754,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1774,17 +1780,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1792,7 +1798,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1800,17 +1806,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>22.5</v>
+        <v>50</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1818,7 +1824,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1826,17 +1832,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1844,7 +1850,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1852,17 +1858,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>192</v>
+        <v>22.5</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1878,13 +1884,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1896,7 +1902,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1904,17 +1910,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1922,7 +1928,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1930,13 +1936,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1948,7 +1954,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1956,17 +1962,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1974,7 +1980,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1982,13 +1988,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2000,7 +2006,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2008,51 +2014,103 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="50" ht="26.25" customHeight="1">
-      <c r="K50" s="10">
+    <row r="50" ht="25.5" customHeight="1">
+      <c r="A50" s="6">
+        <v>47</v>
+      </c>
+      <c t="s" r="B50" s="7">
+        <v>78</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c t="s" r="H50" s="8">
+        <v>79</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="9">
+        <v>24</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c t="s" r="N50" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" ht="24.75" customHeight="1">
+      <c r="A51" s="6">
+        <v>48</v>
+      </c>
+      <c t="s" r="B51" s="7">
+        <v>80</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c t="s" r="H51" s="8">
+        <v>21</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="9">
+        <v>20</v>
+      </c>
+      <c r="M51" s="9"/>
+      <c t="s" r="N51" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" ht="26.25" customHeight="1">
+      <c r="K52" s="10">
         <v>3062.4499999999998</v>
       </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="11">
-        <v>79</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c t="s" r="F51" s="12">
-        <v>80</v>
-      </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c t="s" r="I51" s="14">
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="11">
         <v>81</v>
       </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c t="s" r="F53" s="12">
+        <v>82</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
+      <c t="s" r="I53" s="14">
+        <v>83</v>
+      </c>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="149">
+  <mergeCells count="155">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2198,10 +2256,16 @@
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="I53:N53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
